--- a/data_analysis/dataframe.xlsx
+++ b/data_analysis/dataframe.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Names</t>
   </si>
@@ -35,6 +36,21 @@
   </si>
   <si>
     <t>Mel</t>
+  </si>
+  <si>
+    <t>Eze</t>
+  </si>
+  <si>
+    <t>Luu</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Lin</t>
   </si>
 </sst>
 </file>
@@ -464,4 +480,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>